--- a/data/trans_bre/P48_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P48_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,04</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>-3,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-9,69%</t>
+          <t>-6,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-8,34%</t>
+          <t>-12,59%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-11,17%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,38%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 11,82</t>
+          <t>-13,23; 9,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 12,15</t>
+          <t>-15,13; 10,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 4,1</t>
+          <t>-16,34; 6,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 6,32</t>
+          <t>-16,91; 8,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 31,53</t>
+          <t>-12,36; 16,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 36,62</t>
+          <t>-24,35; 22,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,33; 10,24</t>
+          <t>-28,08; 30,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,7; 18,81</t>
+          <t>-31,4; 15,77</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-32,34; 24,2</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-24,13; 47,22</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-9,51</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-9,37</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,8%</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,14%</t>
+          <t>-3,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-9,95%</t>
+          <t>-13,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,63%</t>
+          <t>-25,38%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-26,58%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-13,55%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 6,2</t>
+          <t>-12,69; 10,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 7,51</t>
+          <t>-17,51; 7,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 6,33</t>
+          <t>-21,66; 1,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 4,17</t>
+          <t>-20,46; 1,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,4; 21,25</t>
+          <t>-16,97; 6,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,31; 32,62</t>
+          <t>-30,22; 33,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,61; 24,51</t>
+          <t>-41,85; 30,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,2; 18,43</t>
+          <t>-48,52; 3,29</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-48,55; 6,18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-41,69; 23,65</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>9,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>13,4</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>12,93</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>23,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>35,02%</t>
+          <t>127,08%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>188,72%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>104,11%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 14,44</t>
+          <t>-17,42; 27,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 19,91</t>
+          <t>-22,22; 25,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 15,55</t>
+          <t>-6,93; 25,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 18,18</t>
+          <t>-3,13; 30,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-52,07; 104,6</t>
+          <t>-9,4; 30,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-47,9; 211,33</t>
+          <t>-61,59; 424,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-51,31; 249,43</t>
+          <t>-70,77; 412,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-42,72; 289,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-57,37; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-47,93; 795,7</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>-0,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-6,67%</t>
+          <t>-6,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,55%</t>
+          <t>-13,35%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-11,67%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-0,45%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 7,57</t>
+          <t>-8,51; 6,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 7,85</t>
+          <t>-10,9; 6,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 3,66</t>
+          <t>-12,77; 2,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 3,53</t>
+          <t>-11,92; 3,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 23,52</t>
+          <t>-8,12; 9,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 27,4</t>
+          <t>-18,48; 20,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 11,59</t>
+          <t>-24,83; 21,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 12,2</t>
+          <t>-29,34; 6,68</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-28,39; 12,24</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-19,67; 30,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P48_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P48_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,61</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,71</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,8</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-4,98</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-3,38%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-6,02%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-12,59%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-11,17%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-0,38%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.606831131125447</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-5.992264535713132</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-7.058943608175838</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-6.226954792503314</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.7705875790658845</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.03377624760076199</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1287512880399768</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1519617687951335</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.1388515331346954</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.01775531497994865</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,23; 9,72</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-15,13; 10,95</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-16,34; 6,38</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-16,91; 8,7</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-12,36; 16,25</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-24,35; 22,51</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-28,08; 30,13</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-31,4; 15,77</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-32,34; 24,2</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-24,13; 47,22</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-13.23333625446082</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-18.01489561399943</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-17.5712110366244</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-17.84281754106354</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-11.59190553125831</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2434556098894923</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3395588871154234</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3338923700007904</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.3507253260894745</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.22503293016402</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.721629375978663</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.61260568133716</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.508901643350207</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.814931380943384</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>17.6007390074051</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.2251229595768427</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.1926151734030271</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.1122930970933228</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.1733197045939172</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.5482908223025947</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,37</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,84</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-9,51</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-9,37</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-4,7</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-3,79%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-13,91%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-25,38%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-26,58%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-13,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-12,69; 10,06</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-17,51; 7,82</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-21,66; 1,02</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-20,46; 1,66</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-16,97; 6,61</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-30,22; 33,44</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-41,85; 30,03</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-48,52; 3,29</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-48,55; 6,18</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-41,69; 23,65</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.36959624723984</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-5.252139798272825</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-8.646239215008899</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-9.180538294891416</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-3.042828764330357</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.03789951117888693</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1522034227632778</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2427897259225331</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.2685048573542532</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.09044486781253668</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,34</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,75</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>13,4</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>12,93</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>23,97%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>7,58%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>127,08%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>188,72%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>104,11%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-12.69268152216772</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-19.75481721761194</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-20.82876175779614</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-20.20803509357309</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-15.87114888718823</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3022422422843024</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4611724062401125</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4829259714649559</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4891300259260924</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3878746129300366</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-17,42; 27,02</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-22,22; 25,67</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,93; 25,79</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,13; 30,85</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-9,4; 30,24</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-61,59; 424,75</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-70,77; 412,41</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-57,37; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-47,93; 795,7</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.05970605619023</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.548222092505021</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.057243043493617</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.893604641156189</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>8.07254275755669</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.3344420903174719</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2974477294153509</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.07198498197488443</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.07922068653134366</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.3103128124387303</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,227 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,54</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-5,12</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-4,26</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,94%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-6,73%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-13,35%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-11,67%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-0,45%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.343396948232265</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.572478032641537</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>7.014767075074954</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>12.17110488439257</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>11.48729717683227</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.2397260897974355</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1378514687288909</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.7741029630118701</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.564839246743057</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.8600857313669688</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-8,51; 6,89</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-10,9; 6,96</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-12,77; 2,22</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-11,92; 3,41</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-8,12; 9,3</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-18,48; 20,23</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-24,83; 21,85</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-29,34; 6,68</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-28,39; 12,24</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-19,67; 30,17</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-17.42147646599009</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-19.38523854477118</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.61848158187251</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.577188857325494</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-10.89478943681108</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.6159213311403847</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6674613372051009</v>
+      </c>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="n">
+        <v>-0.6927951256711777</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.5551125072498443</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>27.02446302747458</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>27.88337164619958</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>22.42917653654278</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>29.11859353404847</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>28.96856874583384</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>4.247504106900429</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>4.683490872245031</v>
+      </c>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="n">
+        <v>6.386775102086115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.3703101162745637</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-4.209015020825152</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-5.615597815474171</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-4.932690559292241</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.8443307503643749</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.009359829366712969</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1097469566446616</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1486075354225922</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1364101736911823</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.02338575678629675</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.511577436796882</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-12.39421561247867</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-12.8495420470583</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-12.61901823879719</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-7.032570090460107</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1848426255850654</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2861896221460601</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3051463143436998</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3068181854267809</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1741433785235716</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.888893609535995</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.564978636106079</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.851159113025419</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.562933696617389</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>10.22902572651118</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.2023317645620406</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1692950360709446</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.05395820489628377</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.08247691968211626</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.3317167527989138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1107,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
